--- a/testset.xlsx
+++ b/testset.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\hpeasyshell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01317F3-D623-4293-8A60-8C57F70D42AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="9432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>TestName</t>
   </si>
@@ -27,16 +28,13 @@
     <t>TestResult(PASS/FAIL)</t>
   </si>
   <si>
-    <t>EditApp</t>
-  </si>
-  <si>
     <t>CreateApp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -348,23 +346,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="1" customWidth="1"/>
-    <col min="4" max="10" width="9.140625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="1" customWidth="1"/>
+    <col min="4" max="10" width="9.109375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -372,16 +370,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3"/>
       <c r="B3"/>
     </row>
   </sheetData>

--- a/testset.xlsx
+++ b/testset.xlsx
@@ -1,52 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01317F3-D623-4293-8A60-8C57F70D42AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="9432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>TestName</t>
-  </si>
-  <si>
-    <t>TestResult(PASS/FAIL)</t>
-  </si>
-  <si>
-    <t>CreateApp</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -62,25 +43,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -346,42 +318,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" style="1" customWidth="1"/>
-    <col min="4" max="10" width="9.109375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="1" width="30.33203125"/>
+    <col customWidth="1" max="2" min="2" style="1" width="28.33203125"/>
+    <col customWidth="1" max="3" min="3" style="1" width="15.88671875"/>
+    <col customWidth="1" max="11" min="4" style="1" width="9.109375"/>
+    <col customWidth="1" max="16384" min="12" style="1" width="9.109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>TestName</t>
+        </is>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>TestResult(PASS/FAIL)</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CreateApp</t>
+        </is>
       </c>
-      <c r="B2"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3"/>
-      <c r="B3"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/testset.xlsx
+++ b/testset.xlsx
@@ -1,33 +1,64 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F9EB9A-0500-4D04-AD93-1DC2AE8166B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="17616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>TestName</t>
+  </si>
+  <si>
+    <t>TestResult(PASS/FAIL)</t>
+  </si>
+  <si>
+    <t>app_edit</t>
+  </si>
+  <si>
+    <t>app_create</t>
+  </si>
+  <si>
+    <t>citrix_create</t>
+  </si>
+  <si>
+    <t>citrix_delete</t>
+  </si>
+  <si>
+    <t>rdp_create</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -43,16 +74,25 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -318,52 +358,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="1" width="30.33203125"/>
-    <col customWidth="1" max="2" min="2" style="1" width="28.33203125"/>
-    <col customWidth="1" max="3" min="3" style="1" width="15.88671875"/>
-    <col customWidth="1" max="11" min="4" style="1" width="9.109375"/>
-    <col customWidth="1" max="16384" min="12" style="1" width="9.109375"/>
+    <col min="1" max="1" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.109375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>TestName</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>TestResult(PASS/FAIL)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>CreateApp</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/testset.xlsx
+++ b/testset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F9EB9A-0500-4D04-AD93-1DC2AE8166B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20374E18-550F-4D31-BA0A-F22F6F196073}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="17616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>TestName</t>
   </si>
@@ -41,6 +41,30 @@
   </si>
   <si>
     <t>rdp_create</t>
+  </si>
+  <si>
+    <t>app_argument</t>
+  </si>
+  <si>
+    <t>app_adminonly</t>
+  </si>
+  <si>
+    <t>app_autolaunch</t>
+  </si>
+  <si>
+    <t>app_delete</t>
+  </si>
+  <si>
+    <t>app_hidenmissapp</t>
+  </si>
+  <si>
+    <t>app_launchdelay</t>
+  </si>
+  <si>
+    <t>app_persistent</t>
+  </si>
+  <si>
+    <t>citrix_edit</t>
   </si>
 </sst>
 </file>
@@ -359,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -395,16 +419,56 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
     </row>

--- a/testset.xlsx
+++ b/testset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20374E18-550F-4D31-BA0A-F22F6F196073}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9D11B5-74E3-4BF3-9AF5-20555B2E2FF3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="17616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>TestName</t>
   </si>
@@ -65,6 +65,78 @@
   </si>
   <si>
     <t>citrix_edit</t>
+  </si>
+  <si>
+    <t>rdp_edit</t>
+  </si>
+  <si>
+    <t>rdp_delete</t>
+  </si>
+  <si>
+    <t>settings_01</t>
+  </si>
+  <si>
+    <t>settings_00</t>
+  </si>
+  <si>
+    <t>settings_10</t>
+  </si>
+  <si>
+    <t>settings_11</t>
+  </si>
+  <si>
+    <t>setting_x3x1</t>
+  </si>
+  <si>
+    <t>settings_x4x2</t>
+  </si>
+  <si>
+    <t>settings_x10</t>
+  </si>
+  <si>
+    <t>settings_x21</t>
+  </si>
+  <si>
+    <t>store_create</t>
+  </si>
+  <si>
+    <t>store_edit</t>
+  </si>
+  <si>
+    <t>store_delete</t>
+  </si>
+  <si>
+    <t>task_onoff</t>
+  </si>
+  <si>
+    <t>task_permanently</t>
+  </si>
+  <si>
+    <t>view_create</t>
+  </si>
+  <si>
+    <t>view_delete</t>
+  </si>
+  <si>
+    <t>view_edit</t>
+  </si>
+  <si>
+    <t>web_create</t>
+  </si>
+  <si>
+    <t>web_edit</t>
+  </si>
+  <si>
+    <t>web_delete</t>
+  </si>
+  <si>
+    <t>web_embeded</t>
+  </si>
+  <si>
+    <t>web_launch</t>
+  </si>
+  <si>
+    <t>web_ui</t>
   </si>
 </sst>
 </file>
@@ -383,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -472,6 +544,126 @@
         <v>6</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/testset.xlsx
+++ b/testset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9D11B5-74E3-4BF3-9AF5-20555B2E2FF3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABE2B77-CAC3-400F-B52F-F40C571616DF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,9 +85,6 @@
     <t>settings_11</t>
   </si>
   <si>
-    <t>setting_x3x1</t>
-  </si>
-  <si>
     <t>settings_x4x2</t>
   </si>
   <si>
@@ -137,6 +134,9 @@
   </si>
   <si>
     <t>web_ui</t>
+  </si>
+  <si>
+    <t>settings_x3x1</t>
   </si>
 </sst>
 </file>
@@ -458,7 +458,7 @@
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,72 +556,72 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
@@ -646,22 +646,22 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/testset.xlsx
+++ b/testset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABE2B77-CAC3-400F-B52F-F40C571616DF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB2D85B-271A-4DDE-942A-D1222CCD074E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="29016" windowHeight="15816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>TestName</t>
   </si>
@@ -28,115 +28,34 @@
     <t>TestResult(PASS/FAIL)</t>
   </si>
   <si>
-    <t>app_edit</t>
-  </si>
-  <si>
-    <t>app_create</t>
-  </si>
-  <si>
-    <t>citrix_create</t>
-  </si>
-  <si>
-    <t>citrix_delete</t>
-  </si>
-  <si>
-    <t>rdp_create</t>
-  </si>
-  <si>
-    <t>app_argument</t>
-  </si>
-  <si>
-    <t>app_adminonly</t>
-  </si>
-  <si>
-    <t>app_autolaunch</t>
-  </si>
-  <si>
-    <t>app_delete</t>
-  </si>
-  <si>
-    <t>app_hidenmissapp</t>
-  </si>
-  <si>
-    <t>app_launchdelay</t>
-  </si>
-  <si>
-    <t>app_persistent</t>
-  </si>
-  <si>
-    <t>citrix_edit</t>
-  </si>
-  <si>
-    <t>rdp_edit</t>
-  </si>
-  <si>
-    <t>rdp_delete</t>
-  </si>
-  <si>
-    <t>settings_01</t>
-  </si>
-  <si>
-    <t>settings_00</t>
-  </si>
-  <si>
-    <t>settings_10</t>
-  </si>
-  <si>
-    <t>settings_11</t>
-  </si>
-  <si>
-    <t>settings_x4x2</t>
-  </si>
-  <si>
-    <t>settings_x10</t>
-  </si>
-  <si>
-    <t>settings_x21</t>
-  </si>
-  <si>
-    <t>store_create</t>
-  </si>
-  <si>
-    <t>store_edit</t>
-  </si>
-  <si>
-    <t>store_delete</t>
-  </si>
-  <si>
-    <t>task_onoff</t>
-  </si>
-  <si>
-    <t>task_permanently</t>
-  </si>
-  <si>
-    <t>view_create</t>
-  </si>
-  <si>
-    <t>view_delete</t>
-  </si>
-  <si>
-    <t>view_edit</t>
-  </si>
-  <si>
-    <t>web_create</t>
-  </si>
-  <si>
-    <t>web_edit</t>
-  </si>
-  <si>
-    <t>web_delete</t>
-  </si>
-  <si>
-    <t>web_embeded</t>
-  </si>
-  <si>
-    <t>web_launch</t>
-  </si>
-  <si>
-    <t>web_ui</t>
-  </si>
-  <si>
-    <t>settings_x3x1</t>
+    <t>background</t>
+  </si>
+  <si>
+    <t>copyright</t>
+  </si>
+  <si>
+    <t>exit_settings</t>
+  </si>
+  <si>
+    <t>import_export</t>
+  </si>
+  <si>
+    <t>kiosk_admin</t>
+  </si>
+  <si>
+    <t>kiosk_newuser</t>
+  </si>
+  <si>
+    <t>task_modify_sound_key</t>
+  </si>
+  <si>
+    <t>task_modify_sound_mouse</t>
+  </si>
+  <si>
+    <t>task_sound_readonly</t>
+  </si>
+  <si>
+    <t>background_custom</t>
   </si>
 </sst>
 </file>
@@ -455,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -480,188 +399,53 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/testset.xlsx
+++ b/testset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB2D85B-271A-4DDE-942A-D1222CCD074E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFEA109-A961-496F-997B-8C2C6E879EB8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="29016" windowHeight="15816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>TestName</t>
   </si>
@@ -28,24 +28,9 @@
     <t>TestResult(PASS/FAIL)</t>
   </si>
   <si>
-    <t>background</t>
-  </si>
-  <si>
-    <t>copyright</t>
-  </si>
-  <si>
-    <t>exit_settings</t>
-  </si>
-  <si>
     <t>import_export</t>
   </si>
   <si>
-    <t>kiosk_admin</t>
-  </si>
-  <si>
-    <t>kiosk_newuser</t>
-  </si>
-  <si>
     <t>task_modify_sound_key</t>
   </si>
   <si>
@@ -55,7 +40,34 @@
     <t>task_sound_readonly</t>
   </si>
   <si>
-    <t>background_custom</t>
+    <t>easyshell_integrated_tool</t>
+  </si>
+  <si>
+    <t>easyshell_launch</t>
+  </si>
+  <si>
+    <t>kiosk_onoff</t>
+  </si>
+  <si>
+    <t>settings_background</t>
+  </si>
+  <si>
+    <t>settings_theme</t>
+  </si>
+  <si>
+    <t>wifi_hidden_ssid</t>
+  </si>
+  <si>
+    <t>wifi_modify_icon</t>
+  </si>
+  <si>
+    <t>wifi_modify_settings</t>
+  </si>
+  <si>
+    <t>wifi_readonly</t>
+  </si>
+  <si>
+    <t>wifi_wpap</t>
   </si>
 </sst>
 </file>
@@ -374,22 +386,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.109375" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.140625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -397,55 +409,75 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/testset.xlsx
+++ b/testset.xlsx
@@ -1,91 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFEA109-A961-496F-997B-8C2C6E879EB8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11220" windowWidth="18570" xWindow="5235" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>TestName</t>
-  </si>
-  <si>
-    <t>TestResult(PASS/FAIL)</t>
-  </si>
-  <si>
-    <t>import_export</t>
-  </si>
-  <si>
-    <t>task_modify_sound_key</t>
-  </si>
-  <si>
-    <t>task_modify_sound_mouse</t>
-  </si>
-  <si>
-    <t>task_sound_readonly</t>
-  </si>
-  <si>
-    <t>easyshell_integrated_tool</t>
-  </si>
-  <si>
-    <t>easyshell_launch</t>
-  </si>
-  <si>
-    <t>kiosk_onoff</t>
-  </si>
-  <si>
-    <t>settings_background</t>
-  </si>
-  <si>
-    <t>settings_theme</t>
-  </si>
-  <si>
-    <t>wifi_hidden_ssid</t>
-  </si>
-  <si>
-    <t>wifi_modify_icon</t>
-  </si>
-  <si>
-    <t>wifi_modify_settings</t>
-  </si>
-  <si>
-    <t>wifi_readonly</t>
-  </si>
-  <si>
-    <t>wifi_wpap</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -101,25 +43,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -385,103 +318,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.140625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="1" width="30.28515625"/>
+    <col customWidth="1" max="2" min="2" style="1" width="28.28515625"/>
+    <col customWidth="1" max="3" min="3" style="1" width="15.85546875"/>
+    <col customWidth="1" max="13" min="4" style="1" width="9.140625"/>
+    <col customWidth="1" max="16384" min="14" style="1" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>TestName</t>
+        </is>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>TestResult(PASS/FAIL)</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>rdp_launch</t>
+        </is>
       </c>
-      <c r="B2"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/testset.xlsx
+++ b/testset.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11220" windowWidth="18570" xWindow="5235" yWindow="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11385" windowWidth="21600" xWindow="5400" yWindow="1995"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,13 +16,29 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FF00FF00"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <color rgb="0000FF00"/>
+    </font>
+    <font>
+      <color rgb="00FF0000"/>
     </font>
   </fonts>
   <fills count="2">
@@ -45,9 +61,13 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -323,19 +343,19 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" style="1" width="30.28515625"/>
     <col customWidth="1" max="2" min="2" style="1" width="28.28515625"/>
     <col customWidth="1" max="3" min="3" style="1" width="15.85546875"/>
-    <col customWidth="1" max="13" min="4" style="1" width="9.140625"/>
-    <col customWidth="1" max="16384" min="14" style="1" width="9.140625"/>
+    <col customWidth="1" max="29" min="4" style="1" width="9.140625"/>
+    <col customWidth="1" max="16384" min="30" style="1" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -353,12 +373,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>rdp_launch</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
+          <t>app_test</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>app_test1</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
